--- a/task/src/main/java/resources/TestData.xlsx
+++ b/task/src/main/java/resources/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Variable</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>ChangedUrl</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net/account/</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,48 +461,56 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>1006470910</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
